--- a/data/output/bases-separadas/-4.xlsx
+++ b/data/output/bases-separadas/-4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>76562198000240</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01777584000179</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>5098913000106</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>03820295000130</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>8804421000187</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03538324000176</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>280306000149</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01274689000105</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5570792000153</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06025302000109</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5957083000125</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>03490289000162</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>8883058000132</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01820175000108</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>62739339000161</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01657687000103</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>5050903000109</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08311282000150</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>13895534000175</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04598545000100</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>9079505000168</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0627303000309</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>13530388000184</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>09504405000131</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>11724156000131</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>02021980000134</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>95022422000174</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>03093776000191</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>8040473000124</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0437311000112</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>56992951001030</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04750478000190</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>4403238000119</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07044736000100</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>13419333000100</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>02286479000108</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>7063698000303</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07929303000132</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>11983066000165</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08258275000131</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>10846331000109</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>07718633000189</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>11251033000120</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09665020000156</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>5342943000116</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>04047851000140</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>10739749000109</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>07309991000138</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>34792887000110</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09225789000153</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>7272549000184</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07858230000135</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>11690280000123</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>05230143000103</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>13280069000168</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05939386000204</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>13096679000106</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>03570410000166</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>68912054000167</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07161053000133</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>7373879000328</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04354818000163</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>9102675000116</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05240326000100</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>5326067000134</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>05578350000153</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>10703321000106</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>01755781000197</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1716186000142</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>05996650000152</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>10355723000167</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>07764138000106</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>13204681000151</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>07827713000172</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>2255187000108</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>05580226000122</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>9546840000129</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>02632088000190</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>9334219000100</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>07457600000203</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>9460743000119</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>07063698000133</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>2125651000133</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>03785767000161</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>10457986000187</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09269703000194</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>3941359000151</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>05238398000112</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>7254166000183</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04372295000188</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>8594352000124</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04289177000100</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>69987733000168</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>09011161000155</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1135910000144</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>03360950000115</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>1133290000104</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>08795211000170</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>3851527000118</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>05847361000191</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>8886173000160</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04821551000177</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>2068087000164</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>07855688000130</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>6888715000109</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>08935848000114</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>11661492000182</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>06267044000169</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>8206867000100</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01061867000110</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>1313391000167</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>02918807000133</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>10336481000164</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>02799882000122</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>519577000104</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>02969334000101</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>4072680000100</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>05490542000103</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1099497000100</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>09543793000160</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>7397985000180</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>03573539000128</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>4990581000107</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>07288750000150</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>14276029000105</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>08701233000123</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>6015029000123</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>07442962000140</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>1125291000107</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>07415176000153</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>11441424000108</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>08329089000146</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>8668141000199</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>07563781000414</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>7173027000125</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>02485215000175</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>2430055000167</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01857955000122</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>12406734000154</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01890043000152</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>21250444000155</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>09402151000140</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>81374332000138</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>05816630000152</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>5209445000108</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>02483982000145</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>11068349000181</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>05098913000106</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>61680740000100</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>08804421000187</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>11247857000127</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0280306000149</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>6012316000180</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>05570792000153</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>49815509000181</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>05957083000125</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>10785680000150</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>08883058000132</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>4391197000198</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>05050903000109</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>2274615000131</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>09079505000168</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>5846759000103</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>08040473000124</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>12601029000108</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04403238000119</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>44471985000109</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>07063698000303</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>10679307000114</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>05342943000116</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>10992079000138</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>07272549000184</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>7064709000108</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>07373879000328</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>5878950000137</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>09102675000116</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>1442702000198</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>05326067000134</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>3470162000181</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01716186000142</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>44636835000108</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>02255187000108</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>12986276000170</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>09546840000129</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>96645536000133</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>09334219000100</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>7169450000151</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>09460743000119</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>76089549000166</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>02125651000133</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>5976012000170</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>03941359000151</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>9576966000146</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>07254166000183</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>10603899000190</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>08594352000124</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>7293334000140</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>01135910000144</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>13038252000151</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>01133290000104</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
